--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 LA.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 LA.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ANTH-205</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>4.76%</t>
   </si>
   <si>
+    <t>2.33%</t>
+  </si>
+  <si>
     <t>WILSON M</t>
   </si>
   <si>
@@ -187,12 +193,12 @@
     <t>39.53%</t>
   </si>
   <si>
-    <t>2.33%</t>
-  </si>
-  <si>
     <t>4.65%</t>
   </si>
   <si>
+    <t>4.44%</t>
+  </si>
+  <si>
     <t>DEAN M</t>
   </si>
   <si>
@@ -205,6 +211,9 @@
     <t>15.79%</t>
   </si>
   <si>
+    <t>5.00%</t>
+  </si>
+  <si>
     <t>FOWLDS K</t>
   </si>
   <si>
@@ -265,6 +274,9 @@
     <t>4.17%</t>
   </si>
   <si>
+    <t>2.04%</t>
+  </si>
+  <si>
     <t>SOMMER P</t>
   </si>
   <si>
@@ -295,6 +307,9 @@
     <t>7.89%</t>
   </si>
   <si>
+    <t>2.56%</t>
+  </si>
+  <si>
     <t>COMM-315</t>
   </si>
   <si>
@@ -385,6 +400,9 @@
     <t>2.47%</t>
   </si>
   <si>
+    <t>1.22%</t>
+  </si>
+  <si>
     <t>ECON-203</t>
   </si>
   <si>
@@ -406,6 +424,9 @@
     <t>2.13%</t>
   </si>
   <si>
+    <t>6.00%</t>
+  </si>
+  <si>
     <t>ECON-323</t>
   </si>
   <si>
@@ -442,6 +463,9 @@
     <t>3.08%</t>
   </si>
   <si>
+    <t>2.99%</t>
+  </si>
+  <si>
     <t>ECON-425</t>
   </si>
   <si>
@@ -511,6 +535,9 @@
     <t>3.70%</t>
   </si>
   <si>
+    <t>6.90%</t>
+  </si>
+  <si>
     <t>FOSTER A</t>
   </si>
   <si>
@@ -553,9 +580,6 @@
     <t>17.24%</t>
   </si>
   <si>
-    <t>6.90%</t>
-  </si>
-  <si>
     <t>3.45%</t>
   </si>
   <si>
@@ -607,6 +631,9 @@
     <t>1.44%</t>
   </si>
   <si>
+    <t>0.71%</t>
+  </si>
+  <si>
     <t>SNIDER J</t>
   </si>
   <si>
@@ -784,6 +811,9 @@
     <t>0.99%</t>
   </si>
   <si>
+    <t>1.94%</t>
+  </si>
+  <si>
     <t>HIST-106</t>
   </si>
   <si>
@@ -802,6 +832,9 @@
     <t>4.67%</t>
   </si>
   <si>
+    <t>0.66%</t>
+  </si>
+  <si>
     <t>HIST-226</t>
   </si>
   <si>
@@ -838,6 +871,9 @@
     <t>29.73%</t>
   </si>
   <si>
+    <t>2.63%</t>
+  </si>
+  <si>
     <t>HIST-334</t>
   </si>
   <si>
@@ -850,9 +886,6 @@
     <t>26.32%</t>
   </si>
   <si>
-    <t>2.63%</t>
-  </si>
-  <si>
     <t>5.26%</t>
   </si>
   <si>
@@ -865,6 +898,9 @@
     <t>42.11%</t>
   </si>
   <si>
+    <t>7.32%</t>
+  </si>
+  <si>
     <t>JAPN-101</t>
   </si>
   <si>
@@ -928,7 +964,7 @@
     <t>15.00%</t>
   </si>
   <si>
-    <t>5.00%</t>
+    <t>2.44%</t>
   </si>
   <si>
     <t>DAVIS K</t>
@@ -940,12 +976,6 @@
     <t>26.83%</t>
   </si>
   <si>
-    <t>7.32%</t>
-  </si>
-  <si>
-    <t>2.44%</t>
-  </si>
-  <si>
     <t>ISTVAN M</t>
   </si>
   <si>
@@ -982,6 +1012,9 @@
     <t>1.00%</t>
   </si>
   <si>
+    <t>1.96%</t>
+  </si>
+  <si>
     <t>FERGUSON G</t>
   </si>
   <si>
@@ -1021,6 +1054,9 @@
     <t>0.41%</t>
   </si>
   <si>
+    <t>3.56%</t>
+  </si>
+  <si>
     <t>KIRKPATRICK K</t>
   </si>
   <si>
@@ -1039,6 +1075,9 @@
     <t>0.79%</t>
   </si>
   <si>
+    <t>0.39%</t>
+  </si>
+  <si>
     <t>POLS-306</t>
   </si>
   <si>
@@ -1099,6 +1138,9 @@
     <t>8.70%</t>
   </si>
   <si>
+    <t>14.81%</t>
+  </si>
+  <si>
     <t>POLS-357</t>
   </si>
   <si>
@@ -1159,6 +1201,9 @@
     <t>3.23%</t>
   </si>
   <si>
+    <t>3.13%</t>
+  </si>
+  <si>
     <t>SCHUMACHER J</t>
   </si>
   <si>
@@ -1255,6 +1300,9 @@
     <t>10.17%</t>
   </si>
   <si>
+    <t>1.67%</t>
+  </si>
+  <si>
     <t>PSYC-311</t>
   </si>
   <si>
@@ -1267,6 +1315,9 @@
     <t>12.12%</t>
   </si>
   <si>
+    <t>1.49%</t>
+  </si>
+  <si>
     <t>PSYC-315</t>
   </si>
   <si>
@@ -1285,6 +1336,9 @@
     <t>12.77%</t>
   </si>
   <si>
+    <t>4.08%</t>
+  </si>
+  <si>
     <t>PSYC-319</t>
   </si>
   <si>
@@ -1300,6 +1354,9 @@
     <t>35.90%</t>
   </si>
   <si>
+    <t>2.50%</t>
+  </si>
+  <si>
     <t>PSYC-335</t>
   </si>
   <si>
@@ -1367,9 +1424,6 @@
   </si>
   <si>
     <t>46.88%</t>
-  </si>
-  <si>
-    <t>3.13%</t>
   </si>
   <si>
     <t>SOCI-317</t>
@@ -1545,12 +1599,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1844,15 +1897,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H359"/>
+  <dimension ref="A1:I359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1877,3998 +1930,4454 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.664</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>3.667</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
         <v>2.667</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
         <v>2.75</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" t="s">
         <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="B18" t="s">
-        <v>27</v>
       </c>
       <c r="C18" t="n">
         <v>3.682</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="n">
         <v>3.75</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
         <v>3.929</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" t="n">
         <v>3.4</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" t="s">
         <v>39</v>
-      </c>
-      <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" t="s">
-        <v>38</v>
       </c>
       <c r="C30" t="n">
         <v>3.5</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" t="n">
         <v>3.1027</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" t="n">
         <v>3.4865</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C35" t="n">
         <v>3.336</v>
       </c>
       <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
         <v>55</v>
       </c>
-      <c r="E35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>57</v>
-      </c>
       <c r="H35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36" t="n">
         <v>2.947</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C37" t="n">
         <v>3.329</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C38" t="n">
         <v>3.21</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C39" t="n">
         <v>3.24</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C40" t="n">
         <v>3.3295</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C41" t="n">
         <v>3.333</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C42" t="n">
         <v>3.5025</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C43" t="n">
         <v>3.583</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C44" t="n">
         <v>3.571</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C47" t="n">
         <v>3.5925</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C50" t="n">
         <v>2.905</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G50" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C53" t="n">
         <v>2.786</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G53" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C56" t="n">
         <v>3.296</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C59" t="n">
         <v>3.208</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F59" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C62" t="n">
         <v>3.353</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C65" t="n">
         <v>3.4</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E65" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C68" t="n">
         <v>3.75</v>
       </c>
       <c r="D68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C71" t="n">
         <v>3.556</v>
       </c>
       <c r="D71" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E71" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F71" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G71" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C74" t="n">
         <v>2.808</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E74" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F74" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G74" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H74" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C77" t="n">
         <v>2.76</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E77" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F77" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G77" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H77" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C80" t="n">
         <v>2.723</v>
       </c>
       <c r="D80" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E80" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F80" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G80" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C83" t="n">
         <v>2.721</v>
       </c>
       <c r="D83" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E83" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F83" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I83" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C89" t="n">
         <v>3.633</v>
       </c>
       <c r="D89" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C90" t="n">
         <v>3.6</v>
       </c>
       <c r="D90" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F90" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C93" t="n">
         <v>3.538</v>
       </c>
       <c r="D93" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E93" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="B96" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C96" t="n">
         <v>3.222</v>
       </c>
       <c r="D96" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E96" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H96" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I96" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C97" t="n">
         <v>3.207</v>
       </c>
       <c r="D97" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E97" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F97" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="B99" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C99" t="n">
         <v>3.296</v>
       </c>
       <c r="D99" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E99" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F99" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I99" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="B100" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C100" t="n">
         <v>3.778</v>
       </c>
       <c r="D100" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E100" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C101" t="n">
         <v>3.345</v>
       </c>
       <c r="D101" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E101" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F101" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G101" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H101" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C102" t="n">
         <v>2.897</v>
       </c>
       <c r="D102" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E102" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G102" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H102" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="B103" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C103" t="n">
         <v>2.692</v>
       </c>
       <c r="D103" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E103" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I103" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C104" t="n">
         <v>3.482</v>
       </c>
       <c r="D104" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E104" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C105" t="n">
         <v>3.511</v>
       </c>
       <c r="D105" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E105" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F105" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>204</v>
+      </c>
+      <c r="I105" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C106" t="n">
         <v>3.518</v>
       </c>
       <c r="D106" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E106" t="s">
+        <v>181</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>184</v>
+      </c>
+      <c r="H106" t="s">
         <v>172</v>
       </c>
-      <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s">
-        <v>175</v>
-      </c>
-      <c r="H106" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C107" t="n">
         <v>2.654</v>
       </c>
       <c r="D107" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E107" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F107" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G107" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="H107" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I107" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C108" t="n">
         <v>3.067</v>
       </c>
       <c r="D108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C109" t="n">
         <v>3.321</v>
       </c>
       <c r="D109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G109" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H109" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I109" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C110" t="n">
         <v>3.267</v>
       </c>
       <c r="D110" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E110" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F110" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G110" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H110" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C113" t="n">
         <v>2.963</v>
       </c>
       <c r="D113" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E113" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G113" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="B114" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C114" t="n">
         <v>3.84</v>
       </c>
       <c r="D114" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="B117" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C117" t="n">
         <v>3.486</v>
       </c>
       <c r="D117" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E117" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="B120" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C120" t="n">
         <v>3.4</v>
       </c>
       <c r="D120" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E120" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F120" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C123" t="n">
         <v>3.474</v>
       </c>
       <c r="D123" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E123" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C126" t="n">
         <v>2.781</v>
       </c>
       <c r="D126" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E126" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="G126" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C129" t="n">
         <v>3.182</v>
       </c>
       <c r="D129" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E129" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H129" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>241</v>
+      </c>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C132" t="n">
         <v>3.4</v>
       </c>
       <c r="D132" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E132" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F132" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C135" t="n">
         <v>2.923</v>
       </c>
       <c r="D135" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E135" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F135" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G135" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="B136" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C136" t="n">
         <v>3.5</v>
       </c>
       <c r="D136" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E136" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F136" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C139" t="n">
         <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="B142" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C142" t="n">
         <v>3.846</v>
       </c>
       <c r="D142" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E142" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="B145" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C145" t="n">
         <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="B148" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C148" t="n">
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C151" t="n">
         <v>3.148</v>
       </c>
       <c r="D151" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="E151" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="F151" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G151" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H151" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C154" t="n">
         <v>2.827</v>
       </c>
       <c r="D154" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E154" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="F154" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="G154" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="H154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C157" t="n">
         <v>3.008</v>
       </c>
       <c r="D157" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E157" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="F157" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="G157" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="H157" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>278</v>
+      </c>
+      <c r="I157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C160" t="n">
         <v>3.429</v>
       </c>
       <c r="D160" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E160" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C163" t="n">
         <v>3.703</v>
       </c>
       <c r="D163" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="E163" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C166" t="n">
         <v>2.632</v>
       </c>
       <c r="D166" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E166" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="F166" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="G166" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H166" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>290</v>
+      </c>
+      <c r="I166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C169" t="n">
         <v>3.105</v>
       </c>
       <c r="D169" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="E169" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F169" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>285</v>
+      </c>
+      <c r="I169" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C172" t="n">
         <v>3.818</v>
       </c>
       <c r="D172" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="E172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C175" t="n">
         <v>3.692</v>
       </c>
       <c r="D175" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E175" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F175" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C178" t="n">
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="B181" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C181" t="n">
         <v>3.444</v>
       </c>
       <c r="D181" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F181" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G181" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="H181" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="B184" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C184" t="n">
         <v>3.368</v>
       </c>
       <c r="D184" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="E184" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F184" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G184" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H184" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="B187" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C187" t="n">
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="B190" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C190" t="n">
         <v>3.5</v>
       </c>
       <c r="D190" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E190" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C191" t="n">
         <v>3.97</v>
       </c>
       <c r="D191" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E191" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C194" t="n">
         <v>3.1</v>
       </c>
       <c r="D194" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E194" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F194" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G194" t="s">
-        <v>304</v>
+        <v>65</v>
       </c>
       <c r="H194" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I194" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="B195" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C195" t="n">
         <v>3.268</v>
       </c>
       <c r="D195" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="E195" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="F195" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="G195" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="H195" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>316</v>
+      </c>
+      <c r="I195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="B196" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C196" t="n">
         <v>2.921</v>
       </c>
       <c r="D196" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="E196" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F196" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="G196" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H196" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I196" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C197" t="n">
         <v>2.763</v>
       </c>
       <c r="D197" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="E197" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F197" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G197" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="H197" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>290</v>
+      </c>
+      <c r="I197" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C200" t="n">
         <v>3.167</v>
       </c>
       <c r="D200" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E200" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F200" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C203" t="n">
         <v>2.87</v>
       </c>
       <c r="D203" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E203" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="F203" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G203" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="H203" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>331</v>
+      </c>
+      <c r="I203" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="B204" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="C204" t="n">
         <v>3.007</v>
       </c>
       <c r="D204" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E204" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="F204" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G204" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="H204" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>338</v>
+      </c>
+      <c r="I204" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="B207" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C207" t="n">
         <v>3.209</v>
       </c>
       <c r="D207" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E207" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="F207" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="G207" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="H207" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>345</v>
+      </c>
+      <c r="I207" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="B208" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C208" t="n">
         <v>3.095</v>
       </c>
       <c r="D208" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="E208" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="F208" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="G208" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="H208" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>352</v>
+      </c>
+      <c r="I208" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="B211" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C211" t="n">
         <v>4</v>
       </c>
       <c r="D211" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H211" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="B212" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C212" t="n">
         <v>4</v>
       </c>
       <c r="D212" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C215" t="n">
         <v>2.792</v>
       </c>
       <c r="D215" t="s">
+        <v>26</v>
+      </c>
+      <c r="E215" t="s">
         <v>25</v>
       </c>
-      <c r="E215" t="s">
-        <v>24</v>
-      </c>
       <c r="F215" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="G215" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H215" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C218" t="n">
         <v>3.259</v>
       </c>
       <c r="D218" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E218" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="F218" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G218" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H218" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I218" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="B221" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C221" t="n">
         <v>3.207</v>
       </c>
       <c r="D221" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E221" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F221" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G221" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H221" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I221" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="B224" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C224" t="n">
         <v>3.936</v>
       </c>
       <c r="D224" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E224" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F224" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G224" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I224" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="B227" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C227" t="n">
         <v>2.826</v>
       </c>
       <c r="D227" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="E227" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="F227" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="G227" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="H227" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>373</v>
+      </c>
+      <c r="I227" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="B230" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C230" t="n">
         <v>3.45</v>
       </c>
       <c r="D230" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="E230" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H230" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I230" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="B233" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C233" t="n">
         <v>3.542</v>
       </c>
       <c r="D233" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E233" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="F233" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G233" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H233" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I233" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="B236" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C236" t="n">
         <v>4</v>
       </c>
       <c r="D236" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E236" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F236" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G236" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H236" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I236" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="B239" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C239" t="n">
         <v>4</v>
       </c>
       <c r="D239" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E239" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G239" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H239" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I239" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="B242" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C242" t="n">
         <v>3.8</v>
       </c>
       <c r="D242" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="E242" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="F242" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G242" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H242" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I242" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="B243" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C243" t="n">
         <v>4</v>
       </c>
       <c r="D243" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H243" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="B246" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C246" t="n">
         <v>3</v>
       </c>
       <c r="D246" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="E246" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="F246" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="G246" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="H246" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>394</v>
+      </c>
+      <c r="I246" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="C247" t="n">
         <v>3.41</v>
       </c>
       <c r="D247" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="E247" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="F247" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="G247" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H247" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>400</v>
+      </c>
+      <c r="I247" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="B250" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="C250" t="n">
         <v>3.026</v>
       </c>
       <c r="D250" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E250" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F250" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="G250" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H250" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="B253" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="C253" t="n">
         <v>2.5105</v>
       </c>
       <c r="D253" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E253" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F253" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G253" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H253" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I253" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="A255" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="B256" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="C256" t="n">
         <v>2.962</v>
       </c>
       <c r="D256" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E256" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="F256" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G256" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="H256" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I256" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="B259" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C259" t="n">
         <v>4</v>
       </c>
       <c r="D259" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E259" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F259" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G259" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H259" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I259" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="A261" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="B262" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C262" t="n">
         <v>3.712</v>
       </c>
       <c r="D262" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E262" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="F262" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G262" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H262" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I262" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="B265" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="C265" t="n">
         <v>3.857</v>
       </c>
       <c r="D265" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="E265" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="F265" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G265" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H265" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I265" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="C266" t="n">
         <v>2.821</v>
       </c>
       <c r="D266" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="E266" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="F266" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="G266" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H266" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I266" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="B269" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="C269" t="n">
         <v>2.288</v>
       </c>
       <c r="D269" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="E269" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="F269" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="G269" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="H269" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>424</v>
+      </c>
+      <c r="I269" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="B272" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="C272" t="n">
         <v>3.515</v>
       </c>
       <c r="D272" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E272" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F272" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="G272" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H272" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I272" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="B275" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="C275" t="n">
         <v>3.074</v>
       </c>
       <c r="D275" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E275" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F275" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G275" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H275" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I275" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="B276" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="C276" t="n">
         <v>3.532</v>
       </c>
       <c r="D276" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="E276" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="F276" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="G276" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H276" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I276" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="B279" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C279" t="n">
         <v>4</v>
       </c>
       <c r="D279" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E279" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F279" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G279" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H279" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I279" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="A281" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="B282" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="C282" t="n">
         <v>2.846</v>
       </c>
       <c r="D282" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="E282" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="F282" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="G282" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H282" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I282" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="A284" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="B285" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="C285" t="n">
         <v>2.625</v>
       </c>
       <c r="D285" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E285" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F285" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="G285" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H285" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I285" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="A287" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="B288" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="C288" t="n">
         <v>3.469</v>
       </c>
       <c r="D288" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E288" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="F288" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="G288" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H288" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I288" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="A290" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="B291" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="C291" t="n">
         <v>4</v>
       </c>
       <c r="D291" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E291" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F291" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G291" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H291" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I291" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="B294" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C294" t="n">
         <v>4</v>
       </c>
       <c r="D294" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E294" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F294" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G294" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H294" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I294" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="A296" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="B297" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="C297" t="n">
         <v>2.923</v>
       </c>
       <c r="D297" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E297" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F297" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G297" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="H297" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I297" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="A299" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="B300" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="C300" t="n">
         <v>2.833</v>
       </c>
       <c r="D300" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E300" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="F300" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G300" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="H300" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>461</v>
+      </c>
+      <c r="I300" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="A302" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="B303" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="C303" t="n">
         <v>3</v>
       </c>
       <c r="D303" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="E303" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F303" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="G303" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H303" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I303" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
       <c r="A305" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="B306" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="C306" t="n">
         <v>3.059</v>
       </c>
       <c r="D306" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="E306" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="F306" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G306" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H306" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I306" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
       <c r="A308" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
       <c r="B309" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="C309" t="n">
         <v>3.438</v>
       </c>
       <c r="D309" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="E309" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F309" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
       <c r="G309" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H309" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I309" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
       <c r="A311" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="B312" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="C312" t="n">
         <v>3.71</v>
       </c>
       <c r="D312" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="E312" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="F312" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="G312" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H312" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I312" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
       <c r="B313" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="C313" t="n">
         <v>3.16</v>
       </c>
       <c r="D313" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E313" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F313" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="G313" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H313" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I313" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="A315" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="B316" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="C316" t="n">
         <v>3.064</v>
       </c>
       <c r="D316" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="E316" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F316" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="G316" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="H316" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>367</v>
+      </c>
+      <c r="I316" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="A318" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
       <c r="B319" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="C319" t="n">
         <v>2.667</v>
       </c>
       <c r="D319" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="E319" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F319" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G319" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H319" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+        <v>387</v>
+      </c>
+      <c r="I319" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
       <c r="A321" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="B322" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
-      <c r="B322" t="s">
-        <v>446</v>
       </c>
       <c r="C322" t="n">
         <v>3.9285</v>
       </c>
       <c r="D322" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="E322" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F322" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G322" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H322" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I322" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
       <c r="A324" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="B325" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="C325" t="n">
         <v>3.333</v>
       </c>
       <c r="D325" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E325" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F325" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G325" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H325" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I325" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
       <c r="B326" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="C326" t="n">
         <v>3.4</v>
       </c>
       <c r="D326" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E326" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="F326" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="G326" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H326" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I326" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
       <c r="A328" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="C329" t="n">
         <v>2.667</v>
       </c>
       <c r="D329" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E329" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F329" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G329" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="H329" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I329" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="C330" t="n">
         <v>3.6</v>
       </c>
       <c r="D330" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="E330" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F330" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="G330" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H330" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I330" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="C331" t="n">
         <v>3.833</v>
       </c>
       <c r="D331" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E331" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F331" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G331" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H331" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I331" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="C332" t="n">
         <v>3.45</v>
       </c>
       <c r="D332" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E332" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="F332" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G332" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H332" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I332" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
       <c r="A334" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="C335" t="n">
         <v>3.167</v>
       </c>
       <c r="D335" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E335" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F335" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G335" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H335" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I335" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
       <c r="B336" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="C336" t="n">
         <v>2.4</v>
       </c>
       <c r="D336" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="E336" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F336" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="G336" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H336" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
+        <v>387</v>
+      </c>
+      <c r="I336" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
       <c r="B337" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="C337" t="n">
         <v>3.286</v>
       </c>
       <c r="D337" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E337" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F337" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="G337" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H337" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I337" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
       <c r="A339" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
       <c r="B340" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="C340" t="n">
         <v>3.421</v>
       </c>
       <c r="D340" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="E340" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F340" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G340" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H340" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I340" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
       <c r="B341" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="C341" t="n">
         <v>3.05</v>
       </c>
       <c r="D341" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E341" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F341" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G341" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H341" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I341" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
       <c r="A343" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
       <c r="B344" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="C344" t="n">
         <v>2.778</v>
       </c>
       <c r="D344" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E344" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="F344" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="G344" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H344" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I344" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
       <c r="A346" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
       <c r="B347" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="C347" t="n">
         <v>3.75</v>
       </c>
       <c r="D347" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E347" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F347" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G347" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H347" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I347" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
       <c r="A349" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
       <c r="B350" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="C350" t="n">
         <v>4</v>
       </c>
       <c r="D350" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E350" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F350" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G350" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H350" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I350" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
       <c r="A352" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
       <c r="B353" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="C353" t="n">
         <v>4</v>
       </c>
       <c r="D353" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E353" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F353" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G353" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H353" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I353" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
       <c r="A355" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
       <c r="B356" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="C356" t="n">
         <v>3.1185</v>
       </c>
       <c r="D356" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="E356" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="F356" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="G356" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="H356" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
+        <v>514</v>
+      </c>
+      <c r="I356" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
       <c r="A358" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
       <c r="B359" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="C359" t="n">
         <v>2.4</v>
       </c>
       <c r="D359" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="E359" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F359" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="G359" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H359" t="s">
-        <v>373</v>
+        <v>387</v>
+      </c>
+      <c r="I359" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 LA.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 LA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="510">
   <si>
     <t>Course</t>
   </si>
@@ -1198,6 +1198,12 @@
     <t>46.15%</t>
   </si>
   <si>
+    <t>CARTER-SOWELL A</t>
+  </si>
+  <si>
+    <t>35.29%</t>
+  </si>
+  <si>
     <t>PSYC-304</t>
   </si>
   <si>
@@ -1333,6 +1339,18 @@
     <t>LE J</t>
   </si>
   <si>
+    <t>KALBASI-ASHTARI S</t>
+  </si>
+  <si>
+    <t>62.86%</t>
+  </si>
+  <si>
+    <t>25.71%</t>
+  </si>
+  <si>
+    <t>8.57%</t>
+  </si>
+  <si>
     <t>SOCI-211</t>
   </si>
   <si>
@@ -1357,9 +1375,6 @@
     <t>DIETRICH K</t>
   </si>
   <si>
-    <t>35.29%</t>
-  </si>
-  <si>
     <t>SOCI-314</t>
   </si>
   <si>
@@ -1402,6 +1417,12 @@
     <t>9.68%</t>
   </si>
   <si>
+    <t>SOCI-423</t>
+  </si>
+  <si>
+    <t>PLANKEY- V</t>
+  </si>
+  <si>
     <t>SOCI-430</t>
   </si>
   <si>
@@ -1423,6 +1444,12 @@
     <t>WEIR G</t>
   </si>
   <si>
+    <t>HERNANDEZ-MIRANDA M</t>
+  </si>
+  <si>
+    <t>MONTEJO-PIZARRO M</t>
+  </si>
+  <si>
     <t>RODRIGUEZ G</t>
   </si>
   <si>
@@ -1456,6 +1483,9 @@
     <t>SPAN-202</t>
   </si>
   <si>
+    <t>LAWO-SUKAM A</t>
+  </si>
+  <si>
     <t>QUINTANA M</t>
   </si>
   <si>
@@ -1508,6 +1538,12 @@
   </si>
   <si>
     <t>WGST-207</t>
+  </si>
+  <si>
+    <t>WGST-300</t>
+  </si>
+  <si>
+    <t>62.50%</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H359"/>
+  <dimension ref="A1:H371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4773,760 +4809,760 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
-      <c r="A258" t="s">
+    <row r="257" spans="1:8">
+      <c r="B257" t="s">
         <v>394</v>
       </c>
+      <c r="C257" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="D257" t="s">
+        <v>395</v>
+      </c>
+      <c r="E257" t="s">
+        <v>111</v>
+      </c>
+      <c r="F257" t="s">
+        <v>113</v>
+      </c>
+      <c r="G257" t="s">
+        <v>13</v>
+      </c>
+      <c r="H257" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="B259" t="s">
-        <v>395</v>
-      </c>
-      <c r="C259" t="n">
+      <c r="A259" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="B260" t="s">
+        <v>397</v>
+      </c>
+      <c r="C260" t="n">
         <v>4</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D260" t="s">
         <v>28</v>
       </c>
-      <c r="E259" t="s">
-        <v>13</v>
-      </c>
-      <c r="F259" t="s">
-        <v>13</v>
-      </c>
-      <c r="G259" t="s">
-        <v>13</v>
-      </c>
-      <c r="H259" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="A261" t="s">
-        <v>396</v>
+      <c r="E260" t="s">
+        <v>13</v>
+      </c>
+      <c r="F260" t="s">
+        <v>13</v>
+      </c>
+      <c r="G260" t="s">
+        <v>13</v>
+      </c>
+      <c r="H260" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="B262" t="s">
-        <v>397</v>
-      </c>
-      <c r="C262" t="n">
+      <c r="A262" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="B263" t="s">
+        <v>399</v>
+      </c>
+      <c r="C263" t="n">
         <v>3.712</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D263" t="s">
         <v>33</v>
       </c>
-      <c r="E262" t="s">
-        <v>398</v>
-      </c>
-      <c r="F262" t="s">
+      <c r="E263" t="s">
+        <v>400</v>
+      </c>
+      <c r="F263" t="s">
         <v>201</v>
       </c>
-      <c r="G262" t="s">
-        <v>13</v>
-      </c>
-      <c r="H262" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" t="s">
-        <v>399</v>
+      <c r="G263" t="s">
+        <v>13</v>
+      </c>
+      <c r="H263" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="B265" t="s">
-        <v>400</v>
-      </c>
-      <c r="C265" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D265" t="s">
+      <c r="A265" t="s">
         <v>401</v>
-      </c>
-      <c r="E265" t="s">
-        <v>402</v>
-      </c>
-      <c r="F265" t="s">
-        <v>13</v>
-      </c>
-      <c r="G265" t="s">
-        <v>13</v>
-      </c>
-      <c r="H265" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="B266" t="s">
+        <v>402</v>
+      </c>
+      <c r="C266" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D266" t="s">
         <v>403</v>
       </c>
-      <c r="C266" t="n">
+      <c r="E266" t="s">
+        <v>404</v>
+      </c>
+      <c r="F266" t="s">
+        <v>13</v>
+      </c>
+      <c r="G266" t="s">
+        <v>13</v>
+      </c>
+      <c r="H266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="B267" t="s">
+        <v>405</v>
+      </c>
+      <c r="C267" t="n">
         <v>2.821</v>
       </c>
-      <c r="D266" t="s">
-        <v>404</v>
-      </c>
-      <c r="E266" t="s">
-        <v>405</v>
-      </c>
-      <c r="F266" t="s">
+      <c r="D267" t="s">
         <v>406</v>
       </c>
-      <c r="G266" t="s">
+      <c r="E267" t="s">
+        <v>407</v>
+      </c>
+      <c r="F267" t="s">
+        <v>408</v>
+      </c>
+      <c r="G267" t="s">
         <v>36</v>
       </c>
-      <c r="H266" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" t="s">
-        <v>407</v>
+      <c r="H267" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:8">
-      <c r="B269" t="s">
-        <v>408</v>
-      </c>
-      <c r="C269" t="n">
+      <c r="A269" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="B270" t="s">
+        <v>410</v>
+      </c>
+      <c r="C270" t="n">
         <v>2.288</v>
       </c>
-      <c r="D269" t="s">
-        <v>409</v>
-      </c>
-      <c r="E269" t="s">
-        <v>410</v>
-      </c>
-      <c r="F269" t="s">
+      <c r="D270" t="s">
         <v>411</v>
       </c>
-      <c r="G269" t="s">
+      <c r="E270" t="s">
         <v>412</v>
       </c>
-      <c r="H269" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" t="s">
+      <c r="F270" t="s">
         <v>413</v>
       </c>
+      <c r="G270" t="s">
+        <v>414</v>
+      </c>
+      <c r="H270" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="272" spans="1:8">
-      <c r="B272" t="s">
-        <v>414</v>
-      </c>
-      <c r="C272" t="n">
+      <c r="A272" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="B273" t="s">
+        <v>416</v>
+      </c>
+      <c r="C273" t="n">
         <v>3.515</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D273" t="s">
         <v>65</v>
       </c>
-      <c r="E272" t="s">
-        <v>415</v>
-      </c>
-      <c r="F272" t="s">
-        <v>416</v>
-      </c>
-      <c r="G272" t="s">
-        <v>13</v>
-      </c>
-      <c r="H272" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" t="s">
+      <c r="E273" t="s">
         <v>417</v>
       </c>
+      <c r="F273" t="s">
+        <v>418</v>
+      </c>
+      <c r="G273" t="s">
+        <v>13</v>
+      </c>
+      <c r="H273" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="B275" t="s">
-        <v>418</v>
-      </c>
-      <c r="C275" t="n">
-        <v>3.074</v>
-      </c>
-      <c r="D275" t="s">
-        <v>162</v>
-      </c>
-      <c r="E275" t="s">
-        <v>211</v>
-      </c>
-      <c r="F275" t="s">
-        <v>20</v>
-      </c>
-      <c r="G275" t="s">
-        <v>13</v>
-      </c>
-      <c r="H275" t="s">
-        <v>13</v>
+      <c r="A275" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="B276" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C276" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="D276" t="s">
+        <v>162</v>
+      </c>
+      <c r="E276" t="s">
+        <v>211</v>
+      </c>
+      <c r="F276" t="s">
+        <v>20</v>
+      </c>
+      <c r="G276" t="s">
+        <v>13</v>
+      </c>
+      <c r="H276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="B277" t="s">
+        <v>421</v>
+      </c>
+      <c r="C277" t="n">
         <v>3.532</v>
       </c>
-      <c r="D276" t="s">
-        <v>420</v>
-      </c>
-      <c r="E276" t="s">
-        <v>421</v>
-      </c>
-      <c r="F276" t="s">
+      <c r="D277" t="s">
         <v>422</v>
       </c>
-      <c r="G276" t="s">
-        <v>13</v>
-      </c>
-      <c r="H276" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" t="s">
+      <c r="E277" t="s">
         <v>423</v>
       </c>
+      <c r="F277" t="s">
+        <v>424</v>
+      </c>
+      <c r="G277" t="s">
+        <v>13</v>
+      </c>
+      <c r="H277" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="279" spans="1:8">
-      <c r="B279" t="s">
+      <c r="A279" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="B280" t="s">
+        <v>397</v>
+      </c>
+      <c r="C280" t="n">
+        <v>4</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" t="s">
+        <v>13</v>
+      </c>
+      <c r="F280" t="s">
+        <v>13</v>
+      </c>
+      <c r="G280" t="s">
+        <v>13</v>
+      </c>
+      <c r="H280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="B283" t="s">
+        <v>427</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2.846</v>
+      </c>
+      <c r="D283" t="s">
+        <v>428</v>
+      </c>
+      <c r="E283" t="s">
+        <v>429</v>
+      </c>
+      <c r="F283" t="s">
+        <v>428</v>
+      </c>
+      <c r="G283" t="s">
+        <v>159</v>
+      </c>
+      <c r="H283" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="B286" t="s">
+        <v>431</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="D286" t="s">
+        <v>17</v>
+      </c>
+      <c r="E286" t="s">
+        <v>78</v>
+      </c>
+      <c r="F286" t="s">
+        <v>346</v>
+      </c>
+      <c r="G286" t="s">
+        <v>17</v>
+      </c>
+      <c r="H286" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="B289" t="s">
+        <v>433</v>
+      </c>
+      <c r="C289" t="n">
+        <v>3.469</v>
+      </c>
+      <c r="D289" t="s">
+        <v>240</v>
+      </c>
+      <c r="E289" t="s">
+        <v>434</v>
+      </c>
+      <c r="F289" t="s">
+        <v>435</v>
+      </c>
+      <c r="G289" t="s">
+        <v>13</v>
+      </c>
+      <c r="H289" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="B292" t="s">
+        <v>437</v>
+      </c>
+      <c r="C292" t="n">
+        <v>4</v>
+      </c>
+      <c r="D292" t="s">
+        <v>28</v>
+      </c>
+      <c r="E292" t="s">
+        <v>13</v>
+      </c>
+      <c r="F292" t="s">
+        <v>13</v>
+      </c>
+      <c r="G292" t="s">
+        <v>13</v>
+      </c>
+      <c r="H292" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="B295" t="s">
+        <v>399</v>
+      </c>
+      <c r="C295" t="n">
+        <v>4</v>
+      </c>
+      <c r="D295" t="s">
+        <v>28</v>
+      </c>
+      <c r="E295" t="s">
+        <v>13</v>
+      </c>
+      <c r="F295" t="s">
+        <v>13</v>
+      </c>
+      <c r="G295" t="s">
+        <v>13</v>
+      </c>
+      <c r="H295" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="B298" t="s">
+        <v>440</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2.923</v>
+      </c>
+      <c r="D298" t="s">
+        <v>238</v>
+      </c>
+      <c r="E298" t="s">
+        <v>21</v>
+      </c>
+      <c r="F298" t="s">
+        <v>238</v>
+      </c>
+      <c r="G298" t="s">
+        <v>201</v>
+      </c>
+      <c r="H298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="B299" t="s">
+        <v>441</v>
+      </c>
+      <c r="C299" t="n">
+        <v>3.486</v>
+      </c>
+      <c r="D299" t="s">
+        <v>442</v>
+      </c>
+      <c r="E299" t="s">
+        <v>443</v>
+      </c>
+      <c r="F299" t="s">
+        <v>444</v>
+      </c>
+      <c r="G299" t="s">
+        <v>219</v>
+      </c>
+      <c r="H299" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="B302" t="s">
+        <v>446</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2.833</v>
+      </c>
+      <c r="D302" t="s">
+        <v>20</v>
+      </c>
+      <c r="E302" t="s">
+        <v>447</v>
+      </c>
+      <c r="F302" t="s">
+        <v>172</v>
+      </c>
+      <c r="G302" t="s">
+        <v>172</v>
+      </c>
+      <c r="H302" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="B305" t="s">
+        <v>450</v>
+      </c>
+      <c r="C305" t="n">
+        <v>3</v>
+      </c>
+      <c r="D305" t="s">
+        <v>367</v>
+      </c>
+      <c r="E305" t="s">
+        <v>78</v>
+      </c>
+      <c r="F305" t="s">
+        <v>346</v>
+      </c>
+      <c r="G305" t="s">
+        <v>82</v>
+      </c>
+      <c r="H305" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="B308" t="s">
+        <v>452</v>
+      </c>
+      <c r="C308" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="D308" t="s">
         <v>395</v>
       </c>
-      <c r="C279" t="n">
+      <c r="E308" t="s">
+        <v>395</v>
+      </c>
+      <c r="F308" t="s">
+        <v>112</v>
+      </c>
+      <c r="G308" t="s">
+        <v>13</v>
+      </c>
+      <c r="H308" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="B311" t="s">
+        <v>454</v>
+      </c>
+      <c r="C311" t="n">
+        <v>3.438</v>
+      </c>
+      <c r="D311" t="s">
+        <v>455</v>
+      </c>
+      <c r="E311" t="s">
+        <v>21</v>
+      </c>
+      <c r="F311" t="s">
+        <v>456</v>
+      </c>
+      <c r="G311" t="s">
+        <v>13</v>
+      </c>
+      <c r="H311" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="B314" t="s">
+        <v>458</v>
+      </c>
+      <c r="C314" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="D314" t="s">
+        <v>459</v>
+      </c>
+      <c r="E314" t="s">
+        <v>460</v>
+      </c>
+      <c r="F314" t="s">
+        <v>354</v>
+      </c>
+      <c r="G314" t="s">
+        <v>13</v>
+      </c>
+      <c r="H314" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="B315" t="s">
+        <v>461</v>
+      </c>
+      <c r="C315" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="D315" t="s">
+        <v>39</v>
+      </c>
+      <c r="E315" t="s">
+        <v>39</v>
+      </c>
+      <c r="F315" t="s">
+        <v>462</v>
+      </c>
+      <c r="G315" t="s">
+        <v>74</v>
+      </c>
+      <c r="H315" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="B318" t="s">
+        <v>464</v>
+      </c>
+      <c r="C318" t="n">
+        <v>3.064</v>
+      </c>
+      <c r="D318" t="s">
+        <v>465</v>
+      </c>
+      <c r="E318" t="s">
+        <v>377</v>
+      </c>
+      <c r="F318" t="s">
+        <v>466</v>
+      </c>
+      <c r="G318" t="s">
+        <v>354</v>
+      </c>
+      <c r="H318" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="B321" t="s">
+        <v>468</v>
+      </c>
+      <c r="C321" t="n">
         <v>4</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D321" t="s">
         <v>28</v>
       </c>
-      <c r="E279" t="s">
-        <v>13</v>
-      </c>
-      <c r="F279" t="s">
-        <v>13</v>
-      </c>
-      <c r="G279" t="s">
-        <v>13</v>
-      </c>
-      <c r="H279" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="A281" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="B282" t="s">
-        <v>425</v>
-      </c>
-      <c r="C282" t="n">
-        <v>2.846</v>
-      </c>
-      <c r="D282" t="s">
-        <v>426</v>
-      </c>
-      <c r="E282" t="s">
-        <v>427</v>
-      </c>
-      <c r="F282" t="s">
-        <v>426</v>
-      </c>
-      <c r="G282" t="s">
-        <v>159</v>
-      </c>
-      <c r="H282" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="A284" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="B285" t="s">
-        <v>429</v>
-      </c>
-      <c r="C285" t="n">
-        <v>2.625</v>
-      </c>
-      <c r="D285" t="s">
-        <v>17</v>
-      </c>
-      <c r="E285" t="s">
-        <v>78</v>
-      </c>
-      <c r="F285" t="s">
-        <v>346</v>
-      </c>
-      <c r="G285" t="s">
-        <v>17</v>
-      </c>
-      <c r="H285" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="A287" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
-      <c r="B288" t="s">
-        <v>431</v>
-      </c>
-      <c r="C288" t="n">
-        <v>3.469</v>
-      </c>
-      <c r="D288" t="s">
-        <v>240</v>
-      </c>
-      <c r="E288" t="s">
-        <v>432</v>
-      </c>
-      <c r="F288" t="s">
-        <v>433</v>
-      </c>
-      <c r="G288" t="s">
-        <v>13</v>
-      </c>
-      <c r="H288" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
-      <c r="A290" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="B291" t="s">
-        <v>435</v>
-      </c>
-      <c r="C291" t="n">
-        <v>4</v>
-      </c>
-      <c r="D291" t="s">
-        <v>28</v>
-      </c>
-      <c r="E291" t="s">
-        <v>13</v>
-      </c>
-      <c r="F291" t="s">
-        <v>13</v>
-      </c>
-      <c r="G291" t="s">
-        <v>13</v>
-      </c>
-      <c r="H291" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
-      <c r="A293" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
-      <c r="B294" t="s">
-        <v>397</v>
-      </c>
-      <c r="C294" t="n">
-        <v>4</v>
-      </c>
-      <c r="D294" t="s">
-        <v>28</v>
-      </c>
-      <c r="E294" t="s">
-        <v>13</v>
-      </c>
-      <c r="F294" t="s">
-        <v>13</v>
-      </c>
-      <c r="G294" t="s">
-        <v>13</v>
-      </c>
-      <c r="H294" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
-      <c r="A296" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="B297" t="s">
-        <v>438</v>
-      </c>
-      <c r="C297" t="n">
-        <v>2.923</v>
-      </c>
-      <c r="D297" t="s">
-        <v>238</v>
-      </c>
-      <c r="E297" t="s">
-        <v>21</v>
-      </c>
-      <c r="F297" t="s">
-        <v>238</v>
-      </c>
-      <c r="G297" t="s">
-        <v>201</v>
-      </c>
-      <c r="H297" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="A299" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
-      <c r="B300" t="s">
-        <v>440</v>
-      </c>
-      <c r="C300" t="n">
-        <v>2.833</v>
-      </c>
-      <c r="D300" t="s">
-        <v>20</v>
-      </c>
-      <c r="E300" t="s">
-        <v>441</v>
-      </c>
-      <c r="F300" t="s">
-        <v>172</v>
-      </c>
-      <c r="G300" t="s">
-        <v>172</v>
-      </c>
-      <c r="H300" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="A302" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="B303" t="s">
-        <v>444</v>
-      </c>
-      <c r="C303" t="n">
-        <v>3</v>
-      </c>
-      <c r="D303" t="s">
-        <v>367</v>
-      </c>
-      <c r="E303" t="s">
-        <v>78</v>
-      </c>
-      <c r="F303" t="s">
-        <v>346</v>
-      </c>
-      <c r="G303" t="s">
+      <c r="E321" t="s">
+        <v>13</v>
+      </c>
+      <c r="F321" t="s">
+        <v>13</v>
+      </c>
+      <c r="G321" t="s">
+        <v>13</v>
+      </c>
+      <c r="H321" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="B324" t="s">
+        <v>470</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2.667</v>
+      </c>
+      <c r="D324" t="s">
+        <v>471</v>
+      </c>
+      <c r="E324" t="s">
+        <v>203</v>
+      </c>
+      <c r="F324" t="s">
+        <v>13</v>
+      </c>
+      <c r="G324" t="s">
+        <v>13</v>
+      </c>
+      <c r="H324" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="B327" t="s">
+        <v>452</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3.9285</v>
+      </c>
+      <c r="D327" t="s">
+        <v>473</v>
+      </c>
+      <c r="E327" t="s">
         <v>82</v>
       </c>
-      <c r="H303" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="A305" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
-      <c r="B306" t="s">
-        <v>446</v>
-      </c>
-      <c r="C306" t="n">
-        <v>3.059</v>
-      </c>
-      <c r="D306" t="s">
-        <v>447</v>
-      </c>
-      <c r="E306" t="s">
-        <v>447</v>
-      </c>
-      <c r="F306" t="s">
-        <v>112</v>
-      </c>
-      <c r="G306" t="s">
-        <v>13</v>
-      </c>
-      <c r="H306" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="A308" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="B309" t="s">
-        <v>449</v>
-      </c>
-      <c r="C309" t="n">
-        <v>3.438</v>
-      </c>
-      <c r="D309" t="s">
-        <v>450</v>
-      </c>
-      <c r="E309" t="s">
-        <v>21</v>
-      </c>
-      <c r="F309" t="s">
-        <v>451</v>
-      </c>
-      <c r="G309" t="s">
-        <v>13</v>
-      </c>
-      <c r="H309" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="A311" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
-      <c r="B312" t="s">
-        <v>453</v>
-      </c>
-      <c r="C312" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="D312" t="s">
-        <v>454</v>
-      </c>
-      <c r="E312" t="s">
-        <v>455</v>
-      </c>
-      <c r="F312" t="s">
-        <v>354</v>
-      </c>
-      <c r="G312" t="s">
-        <v>13</v>
-      </c>
-      <c r="H312" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="B313" t="s">
-        <v>456</v>
-      </c>
-      <c r="C313" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="D313" t="s">
-        <v>39</v>
-      </c>
-      <c r="E313" t="s">
-        <v>39</v>
-      </c>
-      <c r="F313" t="s">
-        <v>457</v>
-      </c>
-      <c r="G313" t="s">
-        <v>74</v>
-      </c>
-      <c r="H313" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
-      <c r="A315" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="B316" t="s">
-        <v>459</v>
-      </c>
-      <c r="C316" t="n">
-        <v>3.064</v>
-      </c>
-      <c r="D316" t="s">
-        <v>460</v>
-      </c>
-      <c r="E316" t="s">
-        <v>377</v>
-      </c>
-      <c r="F316" t="s">
-        <v>461</v>
-      </c>
-      <c r="G316" t="s">
-        <v>354</v>
-      </c>
-      <c r="H316" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
-      <c r="A318" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
-      <c r="B319" t="s">
-        <v>463</v>
-      </c>
-      <c r="C319" t="n">
-        <v>2.667</v>
-      </c>
-      <c r="D319" t="s">
-        <v>464</v>
-      </c>
-      <c r="E319" t="s">
-        <v>203</v>
-      </c>
-      <c r="F319" t="s">
-        <v>13</v>
-      </c>
-      <c r="G319" t="s">
-        <v>13</v>
-      </c>
-      <c r="H319" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
-      <c r="A321" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
-      <c r="B322" t="s">
-        <v>446</v>
-      </c>
-      <c r="C322" t="n">
-        <v>3.9285</v>
-      </c>
-      <c r="D322" t="s">
-        <v>466</v>
-      </c>
-      <c r="E322" t="s">
-        <v>82</v>
-      </c>
-      <c r="F322" t="s">
-        <v>13</v>
-      </c>
-      <c r="G322" t="s">
-        <v>13</v>
-      </c>
-      <c r="H322" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
-      <c r="A324" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
-      <c r="B325" t="s">
-        <v>468</v>
-      </c>
-      <c r="C325" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D325" t="s">
-        <v>84</v>
-      </c>
-      <c r="E325" t="s">
-        <v>85</v>
-      </c>
-      <c r="F325" t="s">
-        <v>17</v>
-      </c>
-      <c r="G325" t="s">
-        <v>85</v>
-      </c>
-      <c r="H325" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
-      <c r="B326" t="s">
-        <v>469</v>
-      </c>
-      <c r="C326" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D326" t="s">
-        <v>42</v>
-      </c>
-      <c r="E326" t="s">
-        <v>373</v>
-      </c>
-      <c r="F326" t="s">
-        <v>373</v>
-      </c>
-      <c r="G326" t="s">
-        <v>13</v>
-      </c>
-      <c r="H326" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
-      <c r="A328" t="s">
-        <v>470</v>
+      <c r="F327" t="s">
+        <v>13</v>
+      </c>
+      <c r="G327" t="s">
+        <v>13</v>
+      </c>
+      <c r="H327" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:8">
-      <c r="B329" t="s">
-        <v>471</v>
-      </c>
-      <c r="C329" t="n">
-        <v>2.667</v>
-      </c>
-      <c r="D329" t="s">
-        <v>20</v>
-      </c>
-      <c r="E329" t="s">
-        <v>20</v>
-      </c>
-      <c r="F329" t="s">
-        <v>172</v>
-      </c>
-      <c r="G329" t="s">
-        <v>172</v>
-      </c>
-      <c r="H329" t="s">
-        <v>172</v>
+      <c r="A329" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="330" spans="1:8">
       <c r="B330" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C330" t="n">
-        <v>3.6</v>
+        <v>3.333</v>
       </c>
       <c r="D330" t="s">
-        <v>372</v>
+        <v>84</v>
       </c>
       <c r="E330" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="F330" t="s">
-        <v>373</v>
+        <v>17</v>
       </c>
       <c r="G330" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="H330" t="s">
         <v>13</v>
@@ -5534,116 +5570,116 @@
     </row>
     <row r="331" spans="1:8">
       <c r="B331" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C331" t="n">
-        <v>3.833</v>
+        <v>3.316</v>
       </c>
       <c r="D331" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="E331" t="s">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="F331" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G331" t="s">
         <v>13</v>
       </c>
       <c r="H331" t="s">
-        <v>13</v>
+        <v>279</v>
       </c>
     </row>
     <row r="332" spans="1:8">
       <c r="B332" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C332" t="n">
-        <v>3.45</v>
+        <v>3.889</v>
       </c>
       <c r="D332" t="s">
+        <v>174</v>
+      </c>
+      <c r="E332" t="s">
+        <v>172</v>
+      </c>
+      <c r="F332" t="s">
+        <v>13</v>
+      </c>
+      <c r="G332" t="s">
+        <v>13</v>
+      </c>
+      <c r="H332" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="B333" t="s">
+        <v>478</v>
+      </c>
+      <c r="C333" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D333" t="s">
         <v>42</v>
       </c>
-      <c r="E332" t="s">
-        <v>364</v>
-      </c>
-      <c r="F332" t="s">
-        <v>13</v>
-      </c>
-      <c r="G332" t="s">
-        <v>13</v>
-      </c>
-      <c r="H332" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
-      <c r="A334" t="s">
-        <v>475</v>
+      <c r="E333" t="s">
+        <v>373</v>
+      </c>
+      <c r="F333" t="s">
+        <v>373</v>
+      </c>
+      <c r="G333" t="s">
+        <v>13</v>
+      </c>
+      <c r="H333" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:8">
-      <c r="B335" t="s">
-        <v>476</v>
-      </c>
-      <c r="C335" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D335" t="s">
-        <v>20</v>
-      </c>
-      <c r="E335" t="s">
-        <v>21</v>
-      </c>
-      <c r="F335" t="s">
-        <v>17</v>
-      </c>
-      <c r="G335" t="s">
-        <v>13</v>
-      </c>
-      <c r="H335" t="s">
-        <v>13</v>
+      <c r="A335" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="336" spans="1:8">
       <c r="B336" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C336" t="n">
-        <v>2.4</v>
+        <v>2.667</v>
       </c>
       <c r="D336" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E336" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F336" t="s">
-        <v>373</v>
+        <v>172</v>
       </c>
       <c r="G336" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="H336" t="s">
-        <v>373</v>
+        <v>172</v>
       </c>
     </row>
     <row r="337" spans="1:8">
       <c r="B337" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C337" t="n">
-        <v>3.286</v>
+        <v>3.6</v>
       </c>
       <c r="D337" t="s">
-        <v>52</v>
+        <v>372</v>
       </c>
       <c r="E337" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F337" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="G337" t="s">
         <v>13</v>
@@ -5652,77 +5688,118 @@
         <v>13</v>
       </c>
     </row>
+    <row r="338" spans="1:8">
+      <c r="B338" t="s">
+        <v>482</v>
+      </c>
+      <c r="C338" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D338" t="s">
+        <v>16</v>
+      </c>
+      <c r="E338" t="s">
+        <v>17</v>
+      </c>
+      <c r="F338" t="s">
+        <v>13</v>
+      </c>
+      <c r="G338" t="s">
+        <v>13</v>
+      </c>
+      <c r="H338" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="339" spans="1:8">
-      <c r="A339" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
-      <c r="B340" t="s">
-        <v>480</v>
-      </c>
-      <c r="C340" t="n">
-        <v>3.421</v>
-      </c>
-      <c r="D340" t="s">
-        <v>282</v>
-      </c>
-      <c r="E340" t="s">
-        <v>223</v>
-      </c>
-      <c r="F340" t="s">
-        <v>13</v>
-      </c>
-      <c r="G340" t="s">
-        <v>13</v>
-      </c>
-      <c r="H340" t="s">
-        <v>13</v>
+      <c r="B339" t="s">
+        <v>483</v>
+      </c>
+      <c r="C339" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="D339" t="s">
+        <v>42</v>
+      </c>
+      <c r="E339" t="s">
+        <v>364</v>
+      </c>
+      <c r="F339" t="s">
+        <v>13</v>
+      </c>
+      <c r="G339" t="s">
+        <v>13</v>
+      </c>
+      <c r="H339" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="341" spans="1:8">
-      <c r="B341" t="s">
-        <v>481</v>
-      </c>
-      <c r="C341" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="D341" t="s">
+      <c r="A341" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="B342" t="s">
+        <v>485</v>
+      </c>
+      <c r="C342" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D342" t="s">
+        <v>20</v>
+      </c>
+      <c r="E342" t="s">
         <v>21</v>
       </c>
-      <c r="E341" t="s">
-        <v>25</v>
-      </c>
-      <c r="F341" t="s">
-        <v>303</v>
-      </c>
-      <c r="G341" t="s">
-        <v>13</v>
-      </c>
-      <c r="H341" t="s">
-        <v>40</v>
+      <c r="F342" t="s">
+        <v>17</v>
+      </c>
+      <c r="G342" t="s">
+        <v>13</v>
+      </c>
+      <c r="H342" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="343" spans="1:8">
-      <c r="A343" t="s">
-        <v>482</v>
+      <c r="B343" t="s">
+        <v>486</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D343" t="s">
+        <v>373</v>
+      </c>
+      <c r="E343" t="s">
+        <v>39</v>
+      </c>
+      <c r="F343" t="s">
+        <v>373</v>
+      </c>
+      <c r="G343" t="s">
+        <v>13</v>
+      </c>
+      <c r="H343" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="344" spans="1:8">
       <c r="B344" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C344" t="n">
-        <v>2.778</v>
+        <v>3.286</v>
       </c>
       <c r="D344" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E344" t="s">
-        <v>484</v>
+        <v>52</v>
       </c>
       <c r="F344" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="G344" t="s">
         <v>13</v>
@@ -5733,142 +5810,295 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="347" spans="1:8">
       <c r="B347" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C347" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D347" t="s">
+        <v>24</v>
+      </c>
+      <c r="E347" t="s">
+        <v>24</v>
+      </c>
+      <c r="F347" t="s">
+        <v>17</v>
+      </c>
+      <c r="G347" t="s">
+        <v>13</v>
+      </c>
+      <c r="H347" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="B348" t="s">
+        <v>490</v>
+      </c>
+      <c r="C348" t="n">
+        <v>3.421</v>
+      </c>
+      <c r="D348" t="s">
+        <v>282</v>
+      </c>
+      <c r="E348" t="s">
+        <v>223</v>
+      </c>
+      <c r="F348" t="s">
+        <v>13</v>
+      </c>
+      <c r="G348" t="s">
+        <v>13</v>
+      </c>
+      <c r="H348" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="B349" t="s">
+        <v>491</v>
+      </c>
+      <c r="C349" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D349" t="s">
+        <v>21</v>
+      </c>
+      <c r="E349" t="s">
+        <v>25</v>
+      </c>
+      <c r="F349" t="s">
+        <v>303</v>
+      </c>
+      <c r="G349" t="s">
+        <v>13</v>
+      </c>
+      <c r="H349" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="B352" t="s">
+        <v>493</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2.778</v>
+      </c>
+      <c r="D352" t="s">
+        <v>17</v>
+      </c>
+      <c r="E352" t="s">
+        <v>494</v>
+      </c>
+      <c r="F352" t="s">
+        <v>447</v>
+      </c>
+      <c r="G352" t="s">
+        <v>13</v>
+      </c>
+      <c r="H352" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="B355" t="s">
+        <v>496</v>
+      </c>
+      <c r="C355" t="n">
         <v>3.75</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D355" t="s">
         <v>16</v>
       </c>
-      <c r="E347" t="s">
+      <c r="E355" t="s">
         <v>85</v>
       </c>
-      <c r="F347" t="s">
+      <c r="F355" t="s">
         <v>85</v>
       </c>
-      <c r="G347" t="s">
-        <v>13</v>
-      </c>
-      <c r="H347" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
-      <c r="A349" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
-      <c r="B350" t="s">
-        <v>488</v>
-      </c>
-      <c r="C350" t="n">
+      <c r="G355" t="s">
+        <v>13</v>
+      </c>
+      <c r="H355" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="A357" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="B358" t="s">
+        <v>498</v>
+      </c>
+      <c r="C358" t="n">
         <v>4</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D358" t="s">
         <v>28</v>
       </c>
-      <c r="E350" t="s">
-        <v>13</v>
-      </c>
-      <c r="F350" t="s">
-        <v>13</v>
-      </c>
-      <c r="G350" t="s">
-        <v>13</v>
-      </c>
-      <c r="H350" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
-      <c r="A352" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
-      <c r="B353" t="s">
-        <v>488</v>
-      </c>
-      <c r="C353" t="n">
+      <c r="E358" t="s">
+        <v>13</v>
+      </c>
+      <c r="F358" t="s">
+        <v>13</v>
+      </c>
+      <c r="G358" t="s">
+        <v>13</v>
+      </c>
+      <c r="H358" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="B361" t="s">
+        <v>498</v>
+      </c>
+      <c r="C361" t="n">
         <v>4</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D361" t="s">
         <v>28</v>
       </c>
-      <c r="E353" t="s">
-        <v>13</v>
-      </c>
-      <c r="F353" t="s">
-        <v>13</v>
-      </c>
-      <c r="G353" t="s">
-        <v>13</v>
-      </c>
-      <c r="H353" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
-      <c r="A355" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
-      <c r="B356" t="s">
-        <v>491</v>
-      </c>
-      <c r="C356" t="n">
+      <c r="E361" t="s">
+        <v>13</v>
+      </c>
+      <c r="F361" t="s">
+        <v>13</v>
+      </c>
+      <c r="G361" t="s">
+        <v>13</v>
+      </c>
+      <c r="H361" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="B364" t="s">
+        <v>501</v>
+      </c>
+      <c r="C364" t="n">
         <v>3.1185</v>
       </c>
-      <c r="D356" t="s">
-        <v>492</v>
-      </c>
-      <c r="E356" t="s">
-        <v>493</v>
-      </c>
-      <c r="F356" t="s">
-        <v>494</v>
-      </c>
-      <c r="G356" t="s">
-        <v>495</v>
-      </c>
-      <c r="H356" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
-      <c r="A358" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
-      <c r="B359" t="s">
-        <v>438</v>
-      </c>
-      <c r="C359" t="n">
+      <c r="D364" t="s">
+        <v>502</v>
+      </c>
+      <c r="E364" t="s">
+        <v>503</v>
+      </c>
+      <c r="F364" t="s">
+        <v>504</v>
+      </c>
+      <c r="G364" t="s">
+        <v>505</v>
+      </c>
+      <c r="H364" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="B367" t="s">
+        <v>440</v>
+      </c>
+      <c r="C367" t="n">
         <v>2.4</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D367" t="s">
         <v>373</v>
       </c>
-      <c r="E359" t="s">
+      <c r="E367" t="s">
         <v>39</v>
       </c>
-      <c r="F359" t="s">
+      <c r="F367" t="s">
         <v>373</v>
       </c>
-      <c r="G359" t="s">
-        <v>13</v>
-      </c>
-      <c r="H359" t="s">
+      <c r="G367" t="s">
+        <v>13</v>
+      </c>
+      <c r="H367" t="s">
         <v>373</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="B368" t="s">
+        <v>441</v>
+      </c>
+      <c r="C368" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D368" t="s">
+        <v>16</v>
+      </c>
+      <c r="E368" t="s">
+        <v>17</v>
+      </c>
+      <c r="F368" t="s">
+        <v>13</v>
+      </c>
+      <c r="G368" t="s">
+        <v>13</v>
+      </c>
+      <c r="H368" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="A370" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="B371" t="s">
+        <v>394</v>
+      </c>
+      <c r="C371" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D371" t="s">
+        <v>509</v>
+      </c>
+      <c r="E371" t="s">
+        <v>25</v>
+      </c>
+      <c r="F371" t="s">
+        <v>79</v>
+      </c>
+      <c r="G371" t="s">
+        <v>13</v>
+      </c>
+      <c r="H371" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
